--- a/results/mp/logistic/corona/confidence/42/masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.1/avg_0.004_scores.xlsx
@@ -46,27 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,18 +76,21 @@
     <t>no</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -97,60 +100,60 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -160,31 +163,28 @@
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -661,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8184931506849316</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
         <v>27</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5251937984496124</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5238095238095238</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4697986577181208</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4266666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3861111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C14">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1179624664879357</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,37 +1311,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01052188552188552</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2351</v>
+        <v>315</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.009345794392523364</v>
+        <v>0.0103126007089913</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F18">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7209302325581395</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,63 +1411,87 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00502209722780233</v>
+        <v>0.00602878257487359</v>
       </c>
       <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>0.43</v>
+      </c>
+      <c r="F19">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5111</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
-        <v>43</v>
-      </c>
-      <c r="E19">
-        <v>0.42</v>
-      </c>
-      <c r="F19">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4953</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L19">
-        <v>28</v>
-      </c>
-      <c r="M19">
-        <v>28</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="B20">
+        <v>0.005430410297666935</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>0.47</v>
+      </c>
+      <c r="F20">
+        <v>0.53</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4945</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1505,12 +1529,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>0.675</v>
@@ -1536,16 +1560,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.638235294117647</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1557,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.602510460251046</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L24">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M24">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1583,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5898305084745763</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1609,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.5846153846153846</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1635,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1661,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5600000000000001</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1687,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1713,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>0.5056179775280899</v>
@@ -1744,16 +1768,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.3424657534246575</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1765,59 +1789,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.02838063439065109</v>
+        <v>0.02759197324414716</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33">
-        <v>0.00938790837401427</v>
-      </c>
-      <c r="L33">
-        <v>25</v>
-      </c>
-      <c r="M33">
-        <v>35</v>
-      </c>
-      <c r="N33">
-        <v>0.71</v>
-      </c>
-      <c r="O33">
-        <v>0.29</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>2638</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
